--- a/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Version</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -77,7 +77,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -77,7 +77,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-procedure-followup-cs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-procedure-followup-cs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>Case Sensitive</t>
@@ -370,58 +373,58 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2"/>
     </row>
